--- a/河北/导出模板/合同分析模板.xlsx
+++ b/河北/导出模板/合同分析模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24048" windowHeight="12420" activeTab="5"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="汇总统计" sheetId="1" r:id="rId1"/>
@@ -202,11 +202,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -845,8 +846,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1192,55 +1196,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="16.8" customHeight="1" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="29.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="6" width="20.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.3333333333333" style="2" customWidth="1"/>
+    <col min="5" max="6" width="20.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1263,782 +1267,782 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="16.8" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11" style="1"/>
+    <col min="1" max="1" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20" style="2" customWidth="1"/>
+    <col min="28" max="28" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:28">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:28">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>45108</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="1">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:28">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>45108</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="1">
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:28">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>45108</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="1">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:28">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>45108</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="W5" s="1">
-        <v>1</v>
-      </c>
-      <c r="X5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="1">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:28">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>45109</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="1">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:28">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>45109</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1">
-        <v>1</v>
-      </c>
-      <c r="W7" s="1">
-        <v>1</v>
-      </c>
-      <c r="X7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:28">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>45109</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
-      <c r="R8" s="1">
-        <v>1</v>
-      </c>
-      <c r="S8" s="1">
-        <v>1</v>
-      </c>
-      <c r="T8" s="1">
-        <v>1</v>
-      </c>
-      <c r="U8" s="1">
-        <v>1</v>
-      </c>
-      <c r="V8" s="1">
-        <v>1</v>
-      </c>
-      <c r="W8" s="1">
-        <v>1</v>
-      </c>
-      <c r="X8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="1">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:28">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>45109</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>1</v>
-      </c>
-      <c r="R9" s="1">
-        <v>1</v>
-      </c>
-      <c r="S9" s="1">
-        <v>1</v>
-      </c>
-      <c r="T9" s="1">
-        <v>1</v>
-      </c>
-      <c r="U9" s="1">
-        <v>1</v>
-      </c>
-      <c r="V9" s="1">
-        <v>1</v>
-      </c>
-      <c r="W9" s="1">
-        <v>1</v>
-      </c>
-      <c r="X9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="1">
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2061,449 +2065,449 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="16.8" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="10.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11" style="1"/>
+    <col min="1" max="1" width="10.3333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20" style="2" customWidth="1"/>
+    <col min="28" max="28" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:28">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:28">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>45108</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="1">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:28">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>45108</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="1">
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:28">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>45109</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="1">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:28">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>45109</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="W5" s="1">
-        <v>1</v>
-      </c>
-      <c r="X5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="1">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
     </row>
     <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2524,608 +2528,608 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="16.8" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="4" max="4" width="29.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6666666666667" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:28">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:28">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>45108</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="1">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1</v>
+      </c>
+      <c r="X2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:28">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>45108</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="1">
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:28">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>45108</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="1">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:28">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>45109</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="W5" s="1">
-        <v>1</v>
-      </c>
-      <c r="X5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="1">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:28">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>45109</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="1">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:28">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>45109</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1">
-        <v>1</v>
-      </c>
-      <c r="W7" s="1">
-        <v>1</v>
-      </c>
-      <c r="X7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="1">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3148,129 +3152,129 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="16.8" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="15.8333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.8333333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="1"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>25</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>25</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>25</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>25</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>25</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>25</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>25</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>25</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>25</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>25</v>
       </c>
     </row>
@@ -3290,94 +3294,99 @@
   <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="2" max="3" width="8.72727272727273" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.9090909090909" customWidth="1"/>
+    <col min="5" max="28" width="8.72727272727273" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="4">
         <v>1</v>
       </c>
     </row>
